--- a/BDMSAutomation/src/main/java/com/bdms/qa/testdata/TestData.xlsx
+++ b/BDMSAutomation/src/main/java/com/bdms/qa/testdata/TestData.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Page_Rights" sheetId="2" r:id="rId2"/>
+    <sheet name="Login_First" sheetId="3" r:id="rId2"/>
+    <sheet name="Page_Rights" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="1313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="1316">
   <si>
     <t>LoginID</t>
   </si>
@@ -3964,6 +3965,15 @@
   </si>
   <si>
     <t xml:space="preserve">Change Password	</t>
+  </si>
+  <si>
+    <t>ajay</t>
+  </si>
+  <si>
+    <t>dilip</t>
+  </si>
+  <si>
+    <t>Harsh</t>
   </si>
 </sst>
 </file>
@@ -4300,7 +4310,7 @@
   <dimension ref="A1:B1306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1306"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14760,9 +14770,89 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B4">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B5">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B6">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B7">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>123456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>

--- a/BDMSAutomation/src/main/java/com/bdms/qa/testdata/TestData.xlsx
+++ b/BDMSAutomation/src/main/java/com/bdms/qa/testdata/TestData.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Login_First" sheetId="3" r:id="rId2"/>
-    <sheet name="Page_Rights" sheetId="2" r:id="rId3"/>
+    <sheet name="Team_Darshant" sheetId="4" r:id="rId3"/>
+    <sheet name="Page_Rights" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="1316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="1326">
   <si>
     <t>LoginID</t>
   </si>
@@ -3974,6 +3975,36 @@
   </si>
   <si>
     <t>Harsh</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Deepak Verma</t>
+  </si>
+  <si>
+    <t>Chandni Jaiswal</t>
+  </si>
+  <si>
+    <t>Viral Shah</t>
+  </si>
+  <si>
+    <t>Pinal Rajput</t>
+  </si>
+  <si>
+    <t>Harsh K Shah</t>
+  </si>
+  <si>
+    <t>Aarsh Patel</t>
+  </si>
+  <si>
+    <t>Ankit Patel</t>
+  </si>
+  <si>
+    <t>Megha Thakkar</t>
+  </si>
+  <si>
+    <t>Dummy ATL</t>
   </si>
 </sst>
 </file>
@@ -14772,7 +14803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -14849,6 +14880,74 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
